--- a/Previous Tests/First Test Analysis (Total).xlsx
+++ b/Previous Tests/First Test Analysis (Total).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="0" windowWidth="19900" windowHeight="13860"/>
+    <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="19440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -347,8 +347,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -439,18 +449,6 @@
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -466,12 +464,24 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -487,6 +497,11 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -502,6 +517,11 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -657,11 +677,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2140699144"/>
-        <c:axId val="2140704504"/>
+        <c:axId val="2126160600"/>
+        <c:axId val="2126165960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2140699144"/>
+        <c:axId val="2126160600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,12 +710,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140704504"/>
+        <c:crossAx val="2126165960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2140704504"/>
+        <c:axId val="2126165960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,7 +745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140699144"/>
+        <c:crossAx val="2126160600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -883,11 +903,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2142705512"/>
-        <c:axId val="2142708424"/>
+        <c:axId val="2126231544"/>
+        <c:axId val="2126236936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2142705512"/>
+        <c:axId val="2126231544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,7 +935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142708424"/>
+        <c:crossAx val="2126236936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -923,7 +943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142708424"/>
+        <c:axId val="2126236936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -959,7 +979,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142705512"/>
+        <c:crossAx val="2126231544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1330,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G23" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1390,19 +1410,19 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="32">
         <v>1.6639999999999999</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="33">
         <v>1.984</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="33">
         <v>2.1259999999999999</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="33">
         <v>2.17</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="33">
         <v>2.0150000000000001</v>
       </c>
       <c r="G2" s="9">
@@ -1411,7 +1431,7 @@
       <c r="H2" s="9">
         <v>1.6559999999999999</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="32">
         <v>1.871</v>
       </c>
       <c r="J2" s="4">
@@ -1434,25 +1454,25 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="33">
         <v>1.9390000000000001</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="32">
         <v>1.6719999999999999</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="33">
         <v>2.069</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="33">
         <v>1.946</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="32">
         <v>1.776</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="32">
         <v>1.8919999999999999</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="32">
         <v>1.8859999999999999</v>
       </c>
       <c r="I3" s="9">
@@ -1478,28 +1498,28 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="33">
         <v>2.048</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="33">
         <v>2.1120000000000001</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="33">
         <v>1.9730000000000001</v>
       </c>
       <c r="E4" s="9">
         <v>1.5629999999999999</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="32">
         <v>1.8620000000000001</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="33">
         <v>2.1640000000000001</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="33">
         <v>1.9510000000000001</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="33">
         <v>1.94</v>
       </c>
       <c r="J4" s="4">
@@ -1522,7 +1542,7 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="33">
         <v>2.0910000000000002</v>
       </c>
       <c r="C5" s="8">
@@ -1531,13 +1551,13 @@
       <c r="D5" s="8">
         <v>2.39</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="32">
         <v>1.7470000000000001</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="33">
         <v>1.9790000000000001</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="33">
         <v>2.0449999999999999</v>
       </c>
       <c r="H5" s="8">
@@ -1566,37 +1586,37 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="33">
         <v>2.1930000000000001</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="33">
         <v>2.0179999999999998</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="32">
         <v>1.76</v>
       </c>
       <c r="E6" s="9">
         <v>1.6279999999999999</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="32">
         <v>1.6990000000000001</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="32">
         <v>1.8109999999999999</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="33">
         <v>1.992</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="32">
         <v>1.8819999999999999</v>
       </c>
       <c r="J6" s="4">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="34">
         <v>0.90600000000000003</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="34">
         <v>0.875</v>
       </c>
       <c r="M6" s="3">
@@ -1637,13 +1657,13 @@
       <c r="J7" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="33">
         <v>1.9510000000000001</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="32">
         <v>1.9119999999999999</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="32">
         <v>1.7689999999999999</v>
       </c>
       <c r="N7" s="7" t="s">
@@ -1687,7 +1707,7 @@
       <c r="L8" s="6">
         <v>3.7549999999999999</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="35">
         <v>3.4649999999999999</v>
       </c>
       <c r="N8" s="7" t="s">
@@ -1725,13 +1745,13 @@
       <c r="J9" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="36" t="s">
         <v>33</v>
       </c>
       <c r="N9" s="7" t="s">
@@ -1739,32 +1759,32 @@
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="M12" s="34" t="s">
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="M12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="R12" s="35" t="s">
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="R12" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="10" t="s">
@@ -1915,7 +1935,7 @@
         <v>29.409345787928654</v>
       </c>
       <c r="T15" s="29">
-        <f t="shared" ref="T15:T21" si="4">(S15*(7828.8*50)/1000000)/10</f>
+        <f t="shared" ref="T15:T20" si="4">(S15*(7828.8*50)/1000000)/10</f>
         <v>1.1511994315226792</v>
       </c>
     </row>
@@ -2241,7 +2261,7 @@
         <f t="shared" si="3"/>
         <v>0.91197398675193442</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="37">
         <f>AVERAGE(I4:I6)</f>
         <v>2.0389999999999997</v>
       </c>
@@ -2408,12 +2428,12 @@
       </c>
     </row>
     <row r="34" spans="7:10">
-      <c r="G34" s="41" t="s">
+      <c r="G34" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
     </row>
     <row r="35" spans="7:10">
       <c r="G35" s="20" t="s">
